--- a/Sentralitetsindeks_SSB.xlsx
+++ b/Sentralitetsindeks_SSB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vgsnfk-my.sharepoint.com/personal/hanmyr_nfk_no/Documents/Skrivebord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vgsnfk-my.sharepoint.com/personal/hanmyr_nfk_no/Documents/Power BI/Inndelinger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{134528FB-C3DF-4800-B11E-FE873BA0CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB888C77-DBA2-4168-8D33-8451521DA659}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{134528FB-C3DF-4800-B11E-FE873BA0CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{271E052E-44EB-4936-9B83-D81C3DFDEC0C}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2640" windowWidth="27420" windowHeight="13044" xr2:uid="{409E8CF8-2220-4B03-87BC-5680137CF160}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{409E8CF8-2220-4B03-87BC-5680137CF160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentralitet" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>670-774</t>
   </si>
   <si>
-    <t>295-564</t>
-  </si>
-  <si>
     <t>565-669</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>0-564</t>
   </si>
 </sst>
 </file>
@@ -424,14 +424,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F52697F-6BD8-49E5-BC85-935228416660}" name="Tabell1" displayName="Tabell1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F42" xr:uid="{9F52697F-6BD8-49E5-BC85-935228416660}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
-    <sortCondition ref="F1:F42"/>
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{23CAEDE1-BF0B-4015-BF3A-B499E2EC7A3D}" name="Kommunenummer" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{6EDF5C19-24C6-470C-BBE4-99A4D872299F}" name="Kommune" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{839392A9-D591-4A9B-B7C2-19675FF618A9}" name="Region" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{ACEA0BB9-A964-41DA-AA0F-829DFBB64586}" name="Sentralitetsindeks" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{CA80E327-DB4A-40D4-827A-E359C155C81C}" name="Intervall" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{ACEA0BB9-A964-41DA-AA0F-829DFBB64586}" name="Sentralitetsindeks" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CA80E327-DB4A-40D4-827A-E359C155C81C}" name="Intervall" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{3EA2767D-D511-4C75-85D3-9E6522BB96AB}" name="Sentralitetsklasse" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -738,7 +738,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>49</v>
@@ -780,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -797,10 +797,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>52</v>
@@ -811,139 +811,139 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1824</v>
+        <v>1811</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>688</v>
+        <v>426</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1833</v>
+        <v>1812</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>708</v>
+        <v>505</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1841</v>
+        <v>1813</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>671</v>
+        <v>613</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1870</v>
+        <v>1815</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>673</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>608</v>
+        <v>373</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>653</v>
+        <v>480</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
@@ -951,99 +951,99 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1860</v>
+        <v>1822</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1865</v>
+        <v>1824</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>686</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1">
         <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>652</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1866</v>
+        <v>1825</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>599</v>
+        <v>494</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1868</v>
+        <v>1826</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>588</v>
+        <v>453</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1811</v>
+        <v>1827</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
         <v>6</v>
@@ -1051,19 +1051,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1812</v>
+        <v>1828</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
@@ -1071,59 +1071,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1815</v>
+        <v>1832</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>383</v>
+        <v>567</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>368</v>
+        <v>713</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1818</v>
+        <v>1834</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1">
         <v>6</v>
@@ -1131,19 +1131,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1822</v>
+        <v>1835</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>557</v>
+        <v>323</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
@@ -1151,19 +1151,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1825</v>
+        <v>1836</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>478</v>
+        <v>338</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
@@ -1171,19 +1171,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1826</v>
+        <v>1837</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1">
         <v>6</v>
@@ -1191,19 +1191,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1827</v>
+        <v>1838</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1">
         <v>6</v>
@@ -1211,19 +1211,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1828</v>
+        <v>1839</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1">
         <v>6</v>
@@ -1231,59 +1231,59 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1834</v>
+        <v>1841</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>350</v>
+        <v>679</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>315</v>
+        <v>547</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1">
         <v>6</v>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1836</v>
+        <v>1848</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -1311,19 +1311,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1837</v>
+        <v>1851</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1">
         <v>6</v>
@@ -1331,19 +1331,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>1838</v>
+        <v>1853</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1">
         <v>6</v>
@@ -1351,19 +1351,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1839</v>
+        <v>1856</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1845</v>
+        <v>1857</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>547</v>
+        <v>370</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1">
         <v>6</v>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1848</v>
+        <v>1859</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1">
-        <v>398</v>
+        <v>522</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
@@ -1411,79 +1411,79 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1851</v>
+        <v>1860</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>545</v>
+        <v>631</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F34" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1853</v>
+        <v>1865</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>535</v>
+        <v>650</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>369</v>
+        <v>605</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1857</v>
+        <v>1867</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>385</v>
+        <v>497</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
@@ -1491,42 +1491,42 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1859</v>
+        <v>1868</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>508</v>
+        <v>670</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1540,10 +1540,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F40" s="1">
         <v>6</v>
@@ -1560,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1">
         <v>6</v>
@@ -1580,10 +1580,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F42" s="1">
         <v>6</v>
